--- a/data/project_data.xlsx
+++ b/data/project_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,22 +427,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sasasa</t>
+          <t>Compromiso, satisfacción con los estudios, cocreación y satisfacción académica: Un análisis de redes de moderación</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sasa</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -452,7 +442,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Introducción</t>
+          <t>Discusión</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -461,16 +451,950 @@
         </is>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Identification of Infidelity Behavior Patterns: A Latent Class Analysis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Resultados</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Pareja</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>sasas</t>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Generalized Anxiety Disorder-7 (GAD-7): Validación de una versión ilustrada para niños</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Revista de Psicología Clínica con Niños y Adolescentes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Publicado</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Infantil</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Ninguna.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Patient Health Questionnaire (PHQ-8): Validación de una versión ilustrada para niños</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Infantil</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Fue rechazado de una primera revista por eso la publicación se encuentra demorada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dimensions of Anger Reactions (DAR-5): Validación de una versión ilustrada para niños</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Journal of Family Trauma, Child Custody &amp; Child Development</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Infantil</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Fue rechazado de una primera revista por eso la publicación se encuentra demorada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Validación de una Escala de Interacción Negativa en una muestra de parejas peruanas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Family Process</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Se enviaron correcciones el 22 de noviembre del 2024. 
+Demora mucho la revista.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Scale of Myths of Romantic Love: Evidence of Validity and Reliability of a Brief Scale in Peru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Journal of Marital and Family Therapy</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Publicado</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Validation and Reliability of The Relationship Involvement Scale (RIS): An Evidence Study in Peruvian Contexts</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Journal of Couple &amp; Relationship Therapy</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Publicado</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Evidence of validity of a Jealousy Scale in Peruvian youth and adults: An item response theory approach</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Suma Psicologica</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Publicado</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Evidencias de validez de la escala de conducta de infidelidad: Una análisis desde la psicometría de redes</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Archives of Sexual Behavior</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Demorado porque fue rechazado de una primera revista.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Predicción del Fin de una Relación Sentimental en Jóvenes y Adultos Peruanos: Un Estudio de Machine Learning</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The Journal of General Psychology</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Publicado</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A computer tool for Aiken's coefficients calculation: Applications in clinical and research settings</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Journal of Evaluation in Clinical Practice</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Publicado</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semillero de Investigación</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Línea Metodológico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mitos del amor romántico, interacciones negativas, involucramiento en la relación, satisfacción, infidelidad y celos en parejas: Un estudio de redes no dirigidas y dirigidas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Journal of Marital and Family Therapy</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>En espera de envió de observaciones a la revista.
+Fecha de respuesta 2024-10-31.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Likert Scale: Should it be Described in an Ordinal or Continuous Manner in Psychology?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Psychological Studies</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semillero de Investigación</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>En espera de la decisión final.
+Línea de investigación Metodológica. 
+Fecha de respuesta 2024-09-03.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Evidence of Validity of the General Self-Efficacy Scale: A Psychometric Network Analysis</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-12-28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Suma Psicologica</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Factor Analysis and item reduction of the Tromso Social Intelligence Scale (TSIS) in a Sample Peruvian</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Journal of Psychoeducational Assessment</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pictorial Adaptation of the Subjective Well-Being Scale: A Bayesian Approach to Confirmatory Factor Analysis</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Revista de Psicología Clínica con Niños y Adolescentes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Infantil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Problem Solving: Development and Validation of an Instrument for Higher Education</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Journal of Evaluation in Clinical Practice</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Línea de investigación Metodológico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EGAnet Shiny: An Interactive Tool for Exploratory Graph Analysis in Health Services and Clinical Research</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Journal of Evaluation in Clinical Practice</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Equipo de Investigación</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>80</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Educativo</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Línea de investigación Metodológico.</t>
         </is>
       </c>
     </row>
